--- a/Source Documents/Common/External Data/XLS/FieldRenameMap.xlsx
+++ b/Source Documents/Common/External Data/XLS/FieldRenameMap.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tc\EEE\TSEEQ_test\Source Documents\Common\External Data\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tc\EEE\TSEEQ.github\tseeq\Source Documents\Common\External Data\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA70D207-8971-478A-9498-46BBC8CA3364}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF5BFCFE-A7F9-41FB-94B3-0EBD0BDE6530}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>Old</t>
   </si>
@@ -305,6 +305,51 @@
   </si>
   <si>
     <t>%TSEEQ Execution Messages</t>
+  </si>
+  <si>
+    <t>EX.Comment</t>
+  </si>
+  <si>
+    <t>EX.Field</t>
+  </si>
+  <si>
+    <t>IN.Comment</t>
+  </si>
+  <si>
+    <t>TR.Comment</t>
+  </si>
+  <si>
+    <t>TR.Target Field Definition</t>
+  </si>
+  <si>
+    <t>IN.Target Field Order</t>
+  </si>
+  <si>
+    <t>IN.Target Field Name</t>
+  </si>
+  <si>
+    <t>Source Folder</t>
+  </si>
+  <si>
+    <t>MD Field from Source</t>
+  </si>
+  <si>
+    <t>MD Field Name in This Datamodel</t>
+  </si>
+  <si>
+    <t>MD Field Name in This Datamodel Tmp</t>
+  </si>
+  <si>
+    <t>MD QVD Read</t>
+  </si>
+  <si>
+    <t>MD Source Folder</t>
+  </si>
+  <si>
+    <t>MD Source To QVD</t>
+  </si>
+  <si>
+    <t>MD Table Name in This Datamodel</t>
   </si>
 </sst>
 </file>
@@ -355,7 +400,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -700,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,8 +1304,215 @@
         <v>42</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"%"&amp;A48</f>
+        <v>%EX.Comment</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" ref="B49:B63" si="0">"%"&amp;A49</f>
+        <v>%EX.Field</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>%IN.Comment</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>%IN.Comment</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>%TR.Comment</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>%TR.Target Field Definition</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>%IN.Target Field Order</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>%IN.Target Field Name</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>%Source Folder</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Field from Source</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Field Name in This Datamodel</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Field Name in This Datamodel Tmp</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD QVD Read</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Source Folder</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Source To QVD</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>%MD Table Name in This Datamodel</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C53 C64:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C63">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/Source Documents/Common/External Data/XLS/FieldRenameMap.xlsx
+++ b/Source Documents/Common/External Data/XLS/FieldRenameMap.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tc\EEE\TSEEQ.github\tseeq\Source Documents\Common\External Data\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tc\EEE\TSEEQ.github_2\Source Documents\Common\External Data\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF5BFCFE-A7F9-41FB-94B3-0EBD0BDE6530}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F075E750-E756-43A9-8B06-9E9F75EC4E98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
   <si>
     <t>Old</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>MD Table Name in This Datamodel</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -777,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +809,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +820,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +853,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,7 +864,7 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1497,7 +1500,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C53 C64:C1048576">
+  <conditionalFormatting sqref="C64:C1048576 C1:C53">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
